--- a/Code/Results/Cases/Case_2_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03919460484061</v>
+        <v>22.73653694881623</v>
       </c>
       <c r="C2">
-        <v>18.23683513353568</v>
+        <v>11.28650503342135</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.796481168268667</v>
+        <v>10.34426849386786</v>
       </c>
       <c r="F2">
-        <v>41.60751779382556</v>
+        <v>48.57960658366371</v>
       </c>
       <c r="G2">
-        <v>2.104455347692124</v>
+        <v>3.736199115189021</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.76173544986963</v>
+        <v>34.85039654094093</v>
       </c>
       <c r="J2">
-        <v>6.376299581320788</v>
+        <v>9.95311620329041</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.01466436489039</v>
+        <v>11.97959562565103</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49173246483711</v>
+        <v>22.4109837217759</v>
       </c>
       <c r="C3">
-        <v>16.89510119051529</v>
+        <v>10.77469274494303</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.69039465445105</v>
+        <v>10.33143828921003</v>
       </c>
       <c r="F3">
-        <v>40.07987814065359</v>
+        <v>48.3929709281989</v>
       </c>
       <c r="G3">
-        <v>2.117507767623392</v>
+        <v>3.740645536060901</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.02547814736241</v>
+        <v>34.78487252983921</v>
       </c>
       <c r="J3">
-        <v>6.444551114127785</v>
+        <v>9.976113745889268</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.8602405583564</v>
+        <v>11.99074188142119</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.50755419900378</v>
+        <v>22.21591080219029</v>
       </c>
       <c r="C4">
-        <v>16.03355685271131</v>
+        <v>10.45158267881312</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.626620238121136</v>
+        <v>10.32357399142278</v>
       </c>
       <c r="F4">
-        <v>39.15525870623037</v>
+        <v>48.28966630819997</v>
       </c>
       <c r="G4">
-        <v>2.125674171535818</v>
+        <v>3.743514703086421</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.59306791940278</v>
+        <v>34.75204542233384</v>
       </c>
       <c r="J4">
-        <v>6.488566750322236</v>
+        <v>9.991116813707803</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.767795760336891</v>
+        <v>11.99957148332046</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09808020089593</v>
+        <v>22.1377343852467</v>
       </c>
       <c r="C5">
-        <v>15.67276953169319</v>
+        <v>10.31790155393706</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.600914481707577</v>
+        <v>10.32037191052016</v>
       </c>
       <c r="F5">
-        <v>38.78203895794871</v>
+        <v>48.25042542031912</v>
       </c>
       <c r="G5">
-        <v>2.129044227050599</v>
+        <v>3.744719019731169</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.4216892495722</v>
+        <v>34.74052818222147</v>
       </c>
       <c r="J5">
-        <v>6.507017109169626</v>
+        <v>9.997452510257245</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.730749653980281</v>
+        <v>12.0036697921564</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.02958519901294</v>
+        <v>22.1248358602303</v>
       </c>
       <c r="C6">
-        <v>15.61226922485304</v>
+        <v>10.2955892894177</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.596661506788704</v>
+        <v>10.31984034881801</v>
       </c>
       <c r="F6">
-        <v>38.72028872635313</v>
+        <v>48.24408246928943</v>
       </c>
       <c r="G6">
-        <v>2.129606477675448</v>
+        <v>3.744921120222088</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.39352064174882</v>
+        <v>34.73872800766312</v>
       </c>
       <c r="J6">
-        <v>6.510111359883237</v>
+        <v>9.998517943214384</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.724636864388259</v>
+        <v>12.00438054503248</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.50206569825739</v>
+        <v>22.21485101564212</v>
       </c>
       <c r="C7">
-        <v>16.02873069921271</v>
+        <v>10.44978764594543</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.626272490856469</v>
+        <v>10.32353079711148</v>
       </c>
       <c r="F7">
-        <v>39.15021056770384</v>
+        <v>48.28912550523349</v>
       </c>
       <c r="G7">
-        <v>2.125719445573473</v>
+        <v>3.743530802579768</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.59073722460291</v>
+        <v>34.75188256918592</v>
       </c>
       <c r="J7">
-        <v>6.488813518809361</v>
+        <v>9.991201361062675</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.767293569437729</v>
+        <v>11.99962472831052</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51275115005133</v>
+        <v>22.6233504065511</v>
       </c>
       <c r="C8">
-        <v>17.78189468257739</v>
+        <v>11.11199084524254</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.75958149939461</v>
+        <v>10.33984140693668</v>
       </c>
       <c r="F8">
-        <v>41.07812679843342</v>
+        <v>48.51292289754385</v>
       </c>
       <c r="G8">
-        <v>2.108926713045437</v>
+        <v>3.737703468508612</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.50372578601198</v>
+        <v>34.826266276986</v>
       </c>
       <c r="J8">
-        <v>6.399384131135852</v>
+        <v>9.96086254606753</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.96094381277153</v>
+        <v>11.98302724335609</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.41799576565362</v>
+        <v>23.45789941683327</v>
       </c>
       <c r="C9">
-        <v>20.93171503301963</v>
+        <v>12.33220427089566</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.034904466466346</v>
+        <v>10.37196676523726</v>
       </c>
       <c r="F9">
-        <v>44.95859366378724</v>
+        <v>49.04043997959274</v>
       </c>
       <c r="G9">
-        <v>2.077005527394236</v>
+        <v>3.727372810661644</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.45573205875463</v>
+        <v>35.03090780486055</v>
       </c>
       <c r="J9">
-        <v>6.241655405033663</v>
+        <v>9.90837384042571</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.358354924289229</v>
+        <v>11.96619583558956</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.12827737644647</v>
+        <v>24.08504080592233</v>
       </c>
       <c r="C10">
-        <v>23.08795657901786</v>
+        <v>13.17181055224976</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.250684645171748</v>
+        <v>10.39570240881817</v>
       </c>
       <c r="F10">
-        <v>47.86820151570957</v>
+        <v>49.48057091433987</v>
       </c>
       <c r="G10">
-        <v>2.053853628063155</v>
+        <v>3.720442299373708</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.99830577798087</v>
+        <v>35.21702267536372</v>
       </c>
       <c r="J10">
-        <v>6.138095145405298</v>
+        <v>9.874085754296635</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.659862288403272</v>
+        <v>11.96335281859529</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.3192008261518</v>
+        <v>24.3720319292722</v>
       </c>
       <c r="C11">
-        <v>24.03927288683871</v>
+        <v>13.53993243199046</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.353153651202484</v>
+        <v>10.40653964190772</v>
       </c>
       <c r="F11">
-        <v>49.20617711917446</v>
+        <v>49.69182426237506</v>
       </c>
       <c r="G11">
-        <v>2.043303205505079</v>
+        <v>3.717430652956162</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.72660993601283</v>
+        <v>35.30940845565355</v>
       </c>
       <c r="J11">
-        <v>6.094120062515521</v>
+        <v>9.859416754483947</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.798949574749285</v>
+        <v>11.96411272178165</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.76456136457742</v>
+        <v>24.48084233888351</v>
       </c>
       <c r="C12">
-        <v>24.39571966971938</v>
+        <v>13.67724455602649</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.392715423929782</v>
+        <v>10.41064994161477</v>
       </c>
       <c r="F12">
-        <v>49.71519476677266</v>
+        <v>49.77336931715805</v>
       </c>
       <c r="G12">
-        <v>2.039297138954646</v>
+        <v>3.716310355804054</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.00655254889753</v>
+        <v>35.3454957112594</v>
       </c>
       <c r="J12">
-        <v>6.077968331840681</v>
+        <v>9.853995702950877</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.851893537223877</v>
+        <v>11.96469427288189</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.66888724448831</v>
+        <v>24.45740389501486</v>
       </c>
       <c r="C13">
-        <v>24.31911328195834</v>
+        <v>13.64776621135481</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.384158841416363</v>
+        <v>10.4097644150067</v>
       </c>
       <c r="F13">
-        <v>49.60545778872692</v>
+        <v>49.75573893425081</v>
       </c>
       <c r="G13">
-        <v>2.04016054410012</v>
+        <v>3.716550737960804</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.946071213716</v>
+        <v>35.33767476679678</v>
       </c>
       <c r="J13">
-        <v>6.08142371799007</v>
+        <v>9.855157269883788</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.840478838233507</v>
+        <v>11.96455598343296</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.35595077353102</v>
+        <v>24.38098178805575</v>
       </c>
       <c r="C14">
-        <v>24.06867119202412</v>
+        <v>13.55127154086456</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.356392322859354</v>
+        <v>10.40687766462809</v>
       </c>
       <c r="F14">
-        <v>49.24800492972933</v>
+        <v>49.69850223247405</v>
       </c>
       <c r="G14">
-        <v>2.042973893014156</v>
+        <v>3.717338082434173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.74955564062715</v>
+        <v>35.31235532388008</v>
       </c>
       <c r="J14">
-        <v>6.092780891519452</v>
+        <v>9.858968078870522</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.803299785486931</v>
+        <v>11.96415468707711</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.16355057125945</v>
+        <v>24.33418511383259</v>
       </c>
       <c r="C15">
-        <v>23.91478855669349</v>
+        <v>13.49189119030737</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.339487932732521</v>
+        <v>10.40511031237679</v>
       </c>
       <c r="F15">
-        <v>49.02937250679259</v>
+        <v>49.66364348874245</v>
       </c>
       <c r="G15">
-        <v>2.044695472274914</v>
+        <v>3.717822973403137</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.62973573532022</v>
+        <v>35.29698979471204</v>
       </c>
       <c r="J15">
-        <v>6.099804353796822</v>
+        <v>9.861319738199729</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.780562380467049</v>
+        <v>11.96394709661389</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.04963710434658</v>
+        <v>24.06630989589979</v>
       </c>
       <c r="C16">
-        <v>23.02522823136744</v>
+        <v>13.14746588222298</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.24408612498811</v>
+        <v>10.39499503495649</v>
       </c>
       <c r="F16">
-        <v>47.7810723241233</v>
+        <v>49.46698381894127</v>
       </c>
       <c r="G16">
-        <v>2.054542079168348</v>
+        <v>3.720641944522991</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.95127038588799</v>
+        <v>35.21113981165113</v>
       </c>
       <c r="J16">
-        <v>6.141036131771827</v>
+        <v>9.875063116464302</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.650810986718866</v>
+        <v>11.96334435116377</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.3558087847722</v>
+        <v>23.90233263749732</v>
       </c>
       <c r="C17">
-        <v>22.47224173947614</v>
+        <v>12.93255593064328</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.186755584961343</v>
+        <v>10.388800362646</v>
       </c>
       <c r="F17">
-        <v>47.01912355988903</v>
+        <v>49.34913925023098</v>
       </c>
       <c r="G17">
-        <v>2.060572474264421</v>
+        <v>3.722407326559667</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.54206963137507</v>
+        <v>35.16044638165894</v>
       </c>
       <c r="J17">
-        <v>6.167165734710871</v>
+        <v>9.88373227791952</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.57170212954805</v>
+        <v>11.96349946387077</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95275465165248</v>
+        <v>23.80818391441974</v>
       </c>
       <c r="C18">
-        <v>22.15136436673991</v>
+        <v>12.80764956644826</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.154176561976497</v>
+        <v>10.3852410488867</v>
       </c>
       <c r="F18">
-        <v>46.5821989617156</v>
+        <v>49.28239942175718</v>
       </c>
       <c r="G18">
-        <v>2.064039814361424</v>
+        <v>3.723436014825248</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.30918605997993</v>
+        <v>35.13201617506816</v>
       </c>
       <c r="J18">
-        <v>6.18248632950456</v>
+        <v>9.888805961779932</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.526382136016087</v>
+        <v>11.9637820328782</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.81559176202435</v>
+        <v>23.7763388431838</v>
       </c>
       <c r="C19">
-        <v>22.04222467441937</v>
+        <v>12.7651391863288</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.143210021804141</v>
+        <v>10.38403653857491</v>
       </c>
       <c r="F19">
-        <v>46.43448548050478</v>
+        <v>49.25998243356189</v>
       </c>
       <c r="G19">
-        <v>2.065213822205954</v>
+        <v>3.723786597320278</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.23075258398538</v>
+        <v>35.1225153144325</v>
       </c>
       <c r="J19">
-        <v>6.187722338181925</v>
+        <v>9.890538830539462</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.511068945017593</v>
+        <v>11.96391095670375</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43007733189734</v>
+        <v>23.91977186524778</v>
       </c>
       <c r="C20">
-        <v>22.53139626738766</v>
+        <v>12.95556835616769</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.1928166043517</v>
+        <v>10.38945940790286</v>
       </c>
       <c r="F20">
-        <v>47.10009522185198</v>
+        <v>49.36157651248641</v>
       </c>
       <c r="G20">
-        <v>2.059930706228939</v>
+        <v>3.722218024459633</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.58537118611975</v>
+        <v>35.16576755892613</v>
       </c>
       <c r="J20">
-        <v>6.164353692564093</v>
+        <v>9.882800382599537</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.580104686020434</v>
+        <v>11.963462950801</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.44801648021492</v>
+        <v>24.40342607537813</v>
       </c>
       <c r="C21">
-        <v>24.14233114175614</v>
+        <v>13.57967174366622</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.364526187987342</v>
+        <v>10.40772539142901</v>
       </c>
       <c r="F21">
-        <v>49.3529305506498</v>
+        <v>49.71527235195478</v>
       </c>
       <c r="G21">
-        <v>2.042147910466912</v>
+        <v>3.717106274571488</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.80716137716555</v>
+        <v>35.31976239751789</v>
       </c>
       <c r="J21">
-        <v>6.089430975091405</v>
+        <v>9.857845119344582</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.814212697476545</v>
+        <v>11.96426459631208</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.73437320979576</v>
+        <v>24.72024835659024</v>
       </c>
       <c r="C22">
-        <v>25.173309609662</v>
+        <v>13.97535532943778</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.481256280609733</v>
+        <v>10.41970136086938</v>
       </c>
       <c r="F22">
-        <v>50.83926133141092</v>
+        <v>49.95543582469332</v>
       </c>
       <c r="G22">
-        <v>2.030457786466682</v>
+        <v>3.713882824123371</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.63007611948817</v>
+        <v>35.42683003298747</v>
       </c>
       <c r="J22">
-        <v>6.043414370200447</v>
+        <v>9.842315295853057</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.968822308933686</v>
+        <v>11.96650020320512</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.05063254785755</v>
+        <v>24.55112394227669</v>
       </c>
       <c r="C23">
-        <v>24.6248873095996</v>
+        <v>13.76531735232949</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.418489841489605</v>
+        <v>10.41330582434122</v>
       </c>
       <c r="F23">
-        <v>50.04456547364586</v>
+        <v>49.82644591973894</v>
       </c>
       <c r="G23">
-        <v>2.036706311055295</v>
+        <v>3.715592546411126</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.18850674339641</v>
+        <v>35.36910122109542</v>
       </c>
       <c r="J23">
-        <v>6.067684989135893</v>
+        <v>9.850532420615723</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.886155672639126</v>
+        <v>11.96515091072528</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.39651351943538</v>
+        <v>23.91188719569518</v>
       </c>
       <c r="C24">
-        <v>22.50466175244308</v>
+        <v>12.9451686412616</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.190075240663079</v>
+        <v>10.38916144710243</v>
       </c>
       <c r="F24">
-        <v>47.06348443384205</v>
+        <v>49.35595047556344</v>
       </c>
       <c r="G24">
-        <v>2.060220847757559</v>
+        <v>3.722303565111215</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.56578719047432</v>
+        <v>35.16335962980273</v>
       </c>
       <c r="J24">
-        <v>6.165624091213674</v>
+        <v>9.883221413195834</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.576305389198636</v>
+        <v>11.96347885587595</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.38024514751256</v>
+        <v>23.22920990762448</v>
       </c>
       <c r="C25">
-        <v>20.10875997814653</v>
+        <v>12.01152343836261</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.958460400876565</v>
+        <v>10.36325607176355</v>
       </c>
       <c r="F25">
-        <v>43.89869330120054</v>
+        <v>48.88838058895591</v>
       </c>
       <c r="G25">
-        <v>2.085563044026843</v>
+        <v>3.730051064363236</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.90945869253381</v>
+        <v>34.96925464108241</v>
       </c>
       <c r="J25">
-        <v>6.282293815566684</v>
+        <v>9.921822997811203</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.249099290093662</v>
+        <v>11.96907218133455</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_220/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.73653694881623</v>
+        <v>24.0391946048406</v>
       </c>
       <c r="C2">
-        <v>11.28650503342135</v>
+        <v>18.23683513353582</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.34426849386786</v>
+        <v>5.796481168268675</v>
       </c>
       <c r="F2">
-        <v>48.57960658366371</v>
+        <v>41.60751779382555</v>
       </c>
       <c r="G2">
-        <v>3.736199115189021</v>
+        <v>2.104455347691995</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.85039654094093</v>
+        <v>28.76173544986956</v>
       </c>
       <c r="J2">
-        <v>9.95311620329041</v>
+        <v>6.376299581320683</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.97959562565103</v>
+        <v>7.014664364890331</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.4109837217759</v>
+        <v>22.4917324648371</v>
       </c>
       <c r="C3">
-        <v>10.77469274494303</v>
+        <v>16.89510119051526</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.33143828921003</v>
+        <v>5.690394654450986</v>
       </c>
       <c r="F3">
-        <v>48.3929709281989</v>
+        <v>40.07987814065378</v>
       </c>
       <c r="G3">
-        <v>3.740645536060901</v>
+        <v>2.117507767623262</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.78487252983921</v>
+        <v>28.02547814736262</v>
       </c>
       <c r="J3">
-        <v>9.976113745889268</v>
+        <v>6.444551114127937</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.99074188142119</v>
+        <v>6.860240558356372</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21591080219029</v>
+        <v>21.50755419900377</v>
       </c>
       <c r="C4">
-        <v>10.45158267881312</v>
+        <v>16.03355685271116</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.32357399142278</v>
+        <v>5.626620238121276</v>
       </c>
       <c r="F4">
-        <v>48.28966630819997</v>
+        <v>39.15525870623044</v>
       </c>
       <c r="G4">
-        <v>3.743514703086421</v>
+        <v>2.125674171535685</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.75204542233384</v>
+        <v>27.59306791940282</v>
       </c>
       <c r="J4">
-        <v>9.991116813707803</v>
+        <v>6.488566750322283</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.99957148332046</v>
+        <v>6.767795760336952</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.1377343852467</v>
+        <v>21.09808020089588</v>
       </c>
       <c r="C5">
-        <v>10.31790155393706</v>
+        <v>15.67276953169324</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.32037191052016</v>
+        <v>5.600914481707783</v>
       </c>
       <c r="F5">
-        <v>48.25042542031912</v>
+        <v>38.78203895794864</v>
       </c>
       <c r="G5">
-        <v>3.744719019731169</v>
+        <v>2.129044227050732</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.74052818222147</v>
+        <v>27.42168924957202</v>
       </c>
       <c r="J5">
-        <v>9.997452510257245</v>
+        <v>6.507017109169578</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.0036697921564</v>
+        <v>6.730749653980296</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.1248358602303</v>
+        <v>21.02958519901296</v>
       </c>
       <c r="C6">
-        <v>10.2955892894177</v>
+        <v>15.61226922485289</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.31984034881801</v>
+        <v>5.596661506788704</v>
       </c>
       <c r="F6">
-        <v>48.24408246928943</v>
+        <v>38.72028872635319</v>
       </c>
       <c r="G6">
-        <v>3.744921120222088</v>
+        <v>2.129606477674784</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.73872800766312</v>
+        <v>27.39352064174886</v>
       </c>
       <c r="J6">
-        <v>9.998517943214384</v>
+        <v>6.510111359883387</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.00438054503248</v>
+        <v>6.724636864388378</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21485101564212</v>
+        <v>21.50206569825739</v>
       </c>
       <c r="C7">
-        <v>10.44978764594543</v>
+        <v>16.02873069921274</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.32353079711148</v>
+        <v>5.626272490856335</v>
       </c>
       <c r="F7">
-        <v>48.28912550523349</v>
+        <v>39.15021056770394</v>
       </c>
       <c r="G7">
-        <v>3.743530802579768</v>
+        <v>2.125719445573602</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.75188256918592</v>
+        <v>27.59073722460301</v>
       </c>
       <c r="J7">
-        <v>9.991201361062675</v>
+        <v>6.488813518809214</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.99962472831052</v>
+        <v>6.76729356943761</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.6233504065511</v>
+        <v>23.51275115005135</v>
       </c>
       <c r="C8">
-        <v>11.11199084524254</v>
+        <v>17.78189468257746</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.33984140693668</v>
+        <v>5.759581499394879</v>
       </c>
       <c r="F8">
-        <v>48.51292289754385</v>
+        <v>41.07812679843341</v>
       </c>
       <c r="G8">
-        <v>3.737703468508612</v>
+        <v>2.108926713045572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.826266276986</v>
+        <v>28.50372578601188</v>
       </c>
       <c r="J8">
-        <v>9.96086254606753</v>
+        <v>6.399384131135776</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.98302724335609</v>
+        <v>6.960943812771575</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.45789941683327</v>
+        <v>27.41799576565359</v>
       </c>
       <c r="C9">
-        <v>12.33220427089566</v>
+        <v>20.93171503301965</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.37196676523726</v>
+        <v>6.034904466466283</v>
       </c>
       <c r="F9">
-        <v>49.04043997959274</v>
+        <v>44.95859366378731</v>
       </c>
       <c r="G9">
-        <v>3.727372810661644</v>
+        <v>2.077005527394227</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.03090780486055</v>
+        <v>30.4557320587547</v>
       </c>
       <c r="J9">
-        <v>9.90837384042571</v>
+        <v>6.241655405033639</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.96619583558956</v>
+        <v>7.358354924289166</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.08504080592233</v>
+        <v>30.12827737644643</v>
       </c>
       <c r="C10">
-        <v>13.17181055224976</v>
+        <v>23.08795657901798</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.39570240881817</v>
+        <v>6.250684645171817</v>
       </c>
       <c r="F10">
-        <v>49.48057091433987</v>
+        <v>47.86820151570952</v>
       </c>
       <c r="G10">
-        <v>3.720442299373708</v>
+        <v>2.053853628063298</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.21702267536372</v>
+        <v>31.99830577798085</v>
       </c>
       <c r="J10">
-        <v>9.874085754296635</v>
+        <v>6.138095145405323</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.96335281859529</v>
+        <v>7.65986228840323</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.3720319292722</v>
+        <v>31.31920082615185</v>
       </c>
       <c r="C11">
-        <v>13.53993243199046</v>
+        <v>24.03927288683879</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.40653964190772</v>
+        <v>6.353153651202681</v>
       </c>
       <c r="F11">
-        <v>49.69182426237506</v>
+        <v>49.20617711917455</v>
       </c>
       <c r="G11">
-        <v>3.717430652956162</v>
+        <v>2.043303205505349</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.30940845565355</v>
+        <v>32.7266099360129</v>
       </c>
       <c r="J11">
-        <v>9.859416754483947</v>
+        <v>6.094120062515509</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.96411272178165</v>
+        <v>7.798949574749326</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.48084233888351</v>
+        <v>31.76456136457741</v>
       </c>
       <c r="C12">
-        <v>13.67724455602649</v>
+        <v>24.39571966971928</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.41064994161477</v>
+        <v>6.392715423929713</v>
       </c>
       <c r="F12">
-        <v>49.77336931715805</v>
+        <v>49.71519476677272</v>
       </c>
       <c r="G12">
-        <v>3.716310355804054</v>
+        <v>2.039297138954647</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.3454957112594</v>
+        <v>33.00655254889762</v>
       </c>
       <c r="J12">
-        <v>9.853995702950877</v>
+        <v>6.077968331840724</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.96469427288189</v>
+        <v>7.851893537223879</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.45740389501486</v>
+        <v>31.66888724448841</v>
       </c>
       <c r="C13">
-        <v>13.64776621135481</v>
+        <v>24.31911328195841</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.4097644150067</v>
+        <v>6.38415884141643</v>
       </c>
       <c r="F13">
-        <v>49.75573893425081</v>
+        <v>49.60545778872697</v>
       </c>
       <c r="G13">
-        <v>3.716550737960804</v>
+        <v>2.040160544099852</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.33767476679678</v>
+        <v>32.946071213716</v>
       </c>
       <c r="J13">
-        <v>9.855157269883788</v>
+        <v>6.08142371799009</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.96455598343296</v>
+        <v>7.840478838233516</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.38098178805575</v>
+        <v>31.35595077353101</v>
       </c>
       <c r="C14">
-        <v>13.55127154086456</v>
+        <v>24.06867119202424</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.40687766462809</v>
+        <v>6.356392322859361</v>
       </c>
       <c r="F14">
-        <v>49.69850223247405</v>
+        <v>49.24800492972943</v>
       </c>
       <c r="G14">
-        <v>3.717338082434173</v>
+        <v>2.042973893014556</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.31235532388008</v>
+        <v>32.74955564062731</v>
       </c>
       <c r="J14">
-        <v>9.858968078870522</v>
+        <v>6.092780891519562</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.96415468707711</v>
+        <v>7.803299785486903</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.33418511383259</v>
+        <v>31.16355057125937</v>
       </c>
       <c r="C15">
-        <v>13.49189119030737</v>
+        <v>23.91478855669342</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.40511031237679</v>
+        <v>6.339487932732448</v>
       </c>
       <c r="F15">
-        <v>49.66364348874245</v>
+        <v>49.02937250679263</v>
       </c>
       <c r="G15">
-        <v>3.717822973403137</v>
+        <v>2.044695472274646</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.29698979471204</v>
+        <v>32.6297357353203</v>
       </c>
       <c r="J15">
-        <v>9.861319738199729</v>
+        <v>6.099804353796954</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.96394709661389</v>
+        <v>7.780562380467037</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.06630989589979</v>
+        <v>30.0496371043466</v>
       </c>
       <c r="C16">
-        <v>13.14746588222298</v>
+        <v>23.02522823136756</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.39499503495649</v>
+        <v>6.244086124988248</v>
       </c>
       <c r="F16">
-        <v>49.46698381894127</v>
+        <v>47.78107232412339</v>
       </c>
       <c r="G16">
-        <v>3.720641944522991</v>
+        <v>2.054542079168748</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.21113981165113</v>
+        <v>31.95127038588809</v>
       </c>
       <c r="J16">
-        <v>9.875063116464302</v>
+        <v>6.141036131771891</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.96334435116377</v>
+        <v>7.650810986718868</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.90233263749732</v>
+        <v>29.35580878477217</v>
       </c>
       <c r="C17">
-        <v>12.93255593064328</v>
+        <v>22.4722417394762</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.388800362646</v>
+        <v>6.186755584961279</v>
       </c>
       <c r="F17">
-        <v>49.34913925023098</v>
+        <v>47.01912355988912</v>
       </c>
       <c r="G17">
-        <v>3.722407326559667</v>
+        <v>2.060572474264416</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.16044638165894</v>
+        <v>31.54206963137513</v>
       </c>
       <c r="J17">
-        <v>9.88373227791952</v>
+        <v>6.167165734710834</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.96349946387077</v>
+        <v>7.57170212954799</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.80818391441974</v>
+        <v>28.95275465165251</v>
       </c>
       <c r="C18">
-        <v>12.80764956644826</v>
+        <v>22.1513643667398</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.3852410488867</v>
+        <v>6.154176561976497</v>
       </c>
       <c r="F18">
-        <v>49.28239942175718</v>
+        <v>46.58219896171566</v>
       </c>
       <c r="G18">
-        <v>3.723436014825248</v>
+        <v>2.064039814361162</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.13201617506816</v>
+        <v>31.30918605997999</v>
       </c>
       <c r="J18">
-        <v>9.888805961779932</v>
+        <v>6.182486329504595</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.9637820328782</v>
+        <v>7.526382136016013</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.7763388431838</v>
+        <v>28.8155917620244</v>
       </c>
       <c r="C19">
-        <v>12.7651391863288</v>
+        <v>22.04222467441953</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.38403653857491</v>
+        <v>6.143210021804219</v>
       </c>
       <c r="F19">
-        <v>49.25998243356189</v>
+        <v>46.43448548050495</v>
       </c>
       <c r="G19">
-        <v>3.723786597320278</v>
+        <v>2.065213822205954</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.1225153144325</v>
+        <v>31.23075258398555</v>
       </c>
       <c r="J19">
-        <v>9.890538830539462</v>
+        <v>6.18772233818187</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.96391095670375</v>
+        <v>7.511068945017516</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.91977186524778</v>
+        <v>29.43007733189742</v>
       </c>
       <c r="C20">
-        <v>12.95556835616769</v>
+        <v>22.53139626738754</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.38945940790286</v>
+        <v>6.192816604351697</v>
       </c>
       <c r="F20">
-        <v>49.36157651248641</v>
+        <v>47.10009522185202</v>
       </c>
       <c r="G20">
-        <v>3.722218024459633</v>
+        <v>2.059930706228672</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.16576755892613</v>
+        <v>31.58537118611976</v>
       </c>
       <c r="J20">
-        <v>9.882800382599537</v>
+        <v>6.164353692564055</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.963462950801</v>
+        <v>7.580104686020444</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.40342607537813</v>
+        <v>31.44801648021491</v>
       </c>
       <c r="C21">
-        <v>13.57967174366622</v>
+        <v>24.14233114175595</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.40772539142901</v>
+        <v>6.364526187987273</v>
       </c>
       <c r="F21">
-        <v>49.71527235195478</v>
+        <v>49.35293055064977</v>
       </c>
       <c r="G21">
-        <v>3.717106274571488</v>
+        <v>2.042147910467051</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.31976239751789</v>
+        <v>32.80716137716554</v>
       </c>
       <c r="J21">
-        <v>9.857845119344582</v>
+        <v>6.089430975091423</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.96426459631208</v>
+        <v>7.814212697476536</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.72024835659024</v>
+        <v>32.73437320979558</v>
       </c>
       <c r="C22">
-        <v>13.97535532943778</v>
+        <v>25.17330960966191</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.41970136086938</v>
+        <v>6.481256280609728</v>
       </c>
       <c r="F22">
-        <v>49.95543582469332</v>
+        <v>50.83926133141082</v>
       </c>
       <c r="G22">
-        <v>3.713882824123371</v>
+        <v>2.030457786466811</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.42683003298747</v>
+        <v>33.63007611948811</v>
       </c>
       <c r="J22">
-        <v>9.842315295853057</v>
+        <v>6.043414370200457</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.96650020320512</v>
+        <v>7.96882230893373</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.55112394227669</v>
+        <v>32.05063254785762</v>
       </c>
       <c r="C23">
-        <v>13.76531735232949</v>
+        <v>24.62488730959957</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.41330582434122</v>
+        <v>6.418489841489872</v>
       </c>
       <c r="F23">
-        <v>49.82644591973894</v>
+        <v>50.04456547364597</v>
       </c>
       <c r="G23">
-        <v>3.715592546411126</v>
+        <v>2.036706311055307</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.36910122109542</v>
+        <v>33.18850674339646</v>
       </c>
       <c r="J23">
-        <v>9.850532420615723</v>
+        <v>6.067684989135856</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.96515091072528</v>
+        <v>7.886155672639178</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.91188719569518</v>
+        <v>29.39651351943558</v>
       </c>
       <c r="C24">
-        <v>12.9451686412616</v>
+        <v>22.50466175244321</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.38916144710243</v>
+        <v>6.190075240663222</v>
       </c>
       <c r="F24">
-        <v>49.35595047556344</v>
+        <v>47.06348443384217</v>
       </c>
       <c r="G24">
-        <v>3.722303565111215</v>
+        <v>2.060220847757435</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.16335962980273</v>
+        <v>31.56578719047435</v>
       </c>
       <c r="J24">
-        <v>9.883221413195834</v>
+        <v>6.165624091213556</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.96347885587595</v>
+        <v>7.576305389198566</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.22920990762448</v>
+        <v>26.38024514751245</v>
       </c>
       <c r="C25">
-        <v>12.01152343836261</v>
+        <v>20.10875997814669</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.36325607176355</v>
+        <v>5.958460400876631</v>
       </c>
       <c r="F25">
-        <v>48.88838058895591</v>
+        <v>43.89869330120049</v>
       </c>
       <c r="G25">
-        <v>3.730051064363236</v>
+        <v>2.085563044027236</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.96925464108241</v>
+        <v>29.9094586925338</v>
       </c>
       <c r="J25">
-        <v>9.921822997811203</v>
+        <v>6.282293815566649</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.96907218133455</v>
+        <v>7.24909929009365</v>
       </c>
       <c r="M25">
         <v>0</v>
